--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造10.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造10.xlsx
@@ -3,18 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\public\document\仕様・設計書\データ・アセット管理\添付\ゲームデータ仕様\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="バイナリデータ構造" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +40,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10：最終端部</t>
+    <t>10：最終端部：T_GDBIN_SEPARATOR</t>
     <rPh sb="3" eb="4">
       <t>サイ</t>
     </rPh>
@@ -722,5 +717,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>